--- a/Simple_XLS_Importer/data/FAO-LandAndGender/FAO-LandAndGender.1Fb.xlsx
+++ b/Simple_XLS_Importer/data/FAO-LandAndGender/FAO-LandAndGender.1Fb.xlsx
@@ -410,10 +410,10 @@
     <t>Missing values: countries with missing values have been excluded</t>
   </si>
   <si>
-    <t>LandAndGender</t>
-  </si>
-  <si>
-    <t>LandAndGender.1Fb</t>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LG.1Fb</t>
   </si>
 </sst>
 </file>
